--- a/fastqFiles/fastq_3569.xlsx
+++ b/fastqFiles/fastq_3569.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE64445A-C564-7B4D-9605-34FA7922BBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
   <si>
     <t>libraryDate</t>
   </si>
@@ -40,9 +46,6 @@
     <t>04.03.19</t>
   </si>
   <si>
-    <t>Retrofitted_3569</t>
-  </si>
-  <si>
     <t>sequence/run_3569_samples/Brent_1_GTAC_1_SIC_Index2_07_TGAGGTTA_GAGTTGGT_S2_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -101,13 +104,19 @@
   </si>
   <si>
     <t>sequence/run_3569_samples/Brent_5b_GTAC_23_SIC_Index2_10_ACGCGGGA_GCTTCTGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +179,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -216,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +265,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,6 +317,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,14 +510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,12 +539,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -498,18 +553,18 @@
         <v>3569</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -518,18 +573,18 @@
         <v>3569</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -538,18 +593,18 @@
         <v>3569</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -558,18 +613,18 @@
         <v>3569</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -578,38 +633,38 @@
         <v>3569</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3569</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>3569</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -618,18 +673,18 @@
         <v>3569</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -638,18 +693,18 @@
         <v>3569</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -658,18 +713,18 @@
         <v>3569</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -678,18 +733,18 @@
         <v>3569</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -698,18 +753,18 @@
         <v>3569</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -718,18 +773,18 @@
         <v>3569</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -738,18 +793,18 @@
         <v>3569</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -758,18 +813,18 @@
         <v>3569</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -778,18 +833,18 @@
         <v>3569</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -798,18 +853,18 @@
         <v>3569</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -818,18 +873,18 @@
         <v>3569</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -838,18 +893,18 @@
         <v>3569</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -858,18 +913,18 @@
         <v>3569</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -878,10 +933,10 @@
         <v>3569</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3569.xlsx
+++ b/fastqFiles/fastq_3569.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/fastqFiles/fastq_3569.xlsx
+++ b/fastqFiles/fastq_3569.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brent_3_GTAC_2_SIC_Index2_07_GCTTAGAA_GAGTTGGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34]</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_4_GTAC_4_SIC_Index2_07_CACCTCCA_GAGTTGGT_S5_R1_001.fastq.gz</t>
@@ -219,12 +222,14 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V14" activeCellId="0" sqref="V14"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="76.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -298,8 +303,8 @@
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>34</v>
+      <c r="I3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,13 +324,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>34</v>
+      <c r="I4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,7 +350,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -368,7 +373,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -391,7 +396,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -414,7 +419,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -437,7 +442,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -460,7 +465,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -483,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -506,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -529,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -552,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -595,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -618,12 +623,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>10</v>
@@ -638,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -646,7 +651,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>10</v>
@@ -661,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -669,7 +674,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>10</v>
@@ -684,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -692,7 +697,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>10</v>
@@ -707,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3569.xlsx
+++ b/fastqFiles/fastq_3569.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brent_2b_GTAC_20_SIC_Index2_10_ACAGATAA_GCTTCTGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[512]</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_4b_GTAC_22_SIC_Index2_10_AAATGCAA_GCTTCTGT_S23_R1_001.fastq.gz</t>
@@ -221,14 +224,14 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="76.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="76.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -669,7 +672,10 @@
         <v>31</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
